--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N2">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q2">
-        <v>0.005235919701333333</v>
+        <v>0.0006235755874444445</v>
       </c>
       <c r="R2">
-        <v>0.04712327731199999</v>
+        <v>0.005612180287</v>
       </c>
       <c r="S2">
-        <v>3.353625445260093E-05</v>
+        <v>4.026354787907393E-06</v>
       </c>
       <c r="T2">
-        <v>3.353625445260093E-05</v>
+        <v>4.026354787907393E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P3">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q3">
-        <v>0.8917470118186664</v>
+        <v>0.3059684351142222</v>
       </c>
       <c r="R3">
-        <v>8.025723106367998</v>
+        <v>2.753715916028</v>
       </c>
       <c r="S3">
-        <v>0.005711671759993143</v>
+        <v>0.001975602474624517</v>
       </c>
       <c r="T3">
-        <v>0.005711671759993144</v>
+        <v>0.001975602474624517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q4">
-        <v>0.3773203487519999</v>
+        <v>0.129462857867</v>
       </c>
       <c r="R4">
-        <v>3.395883138767999</v>
+        <v>1.165165720803</v>
       </c>
       <c r="S4">
-        <v>0.002416750436923023</v>
+        <v>0.0008359265630734945</v>
       </c>
       <c r="T4">
-        <v>0.002416750436923023</v>
+        <v>0.0008359265630734945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N5">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q5">
-        <v>0.6296701335644445</v>
+        <v>0.2185618000394444</v>
       </c>
       <c r="R5">
-        <v>5.66703120208</v>
+        <v>1.967056200355</v>
       </c>
       <c r="S5">
-        <v>0.004033059906370033</v>
+        <v>0.001411228033555558</v>
       </c>
       <c r="T5">
-        <v>0.004033059906370032</v>
+        <v>0.001411228033555558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>38.984044</v>
       </c>
       <c r="O6">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P6">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q6">
         <v>107.2412282974022</v>
@@ -818,10 +818,10 @@
         <v>965.17105467662</v>
       </c>
       <c r="S6">
-        <v>0.6868839335093896</v>
+        <v>0.6924440945257248</v>
       </c>
       <c r="T6">
-        <v>0.6868839335093896</v>
+        <v>0.6924440945257248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>16.495119</v>
       </c>
       <c r="O7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q7">
         <v>45.376432021055</v>
@@ -880,10 +880,10 @@
         <v>408.387888189495</v>
       </c>
       <c r="S7">
-        <v>0.2906376830075779</v>
+        <v>0.2929903254790364</v>
       </c>
       <c r="T7">
-        <v>0.2906376830075779</v>
+        <v>0.2929903254790365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N8">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O8">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P8">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q8">
-        <v>0.006596808152888888</v>
+        <v>0.002289786647888889</v>
       </c>
       <c r="R8">
-        <v>0.05937127337599999</v>
+        <v>0.020608079831</v>
       </c>
       <c r="S8">
-        <v>4.22527940476125E-05</v>
+        <v>1.478488513445089E-05</v>
       </c>
       <c r="T8">
-        <v>4.22527940476125E-05</v>
+        <v>1.478488513445089E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>38.984044</v>
       </c>
       <c r="O9">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P9">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q9">
         <v>1.123524479640444</v>
@@ -1004,10 +1004,10 @@
         <v>10.111720316764</v>
       </c>
       <c r="S9">
-        <v>0.007196214797441037</v>
+        <v>0.007254466433605358</v>
       </c>
       <c r="T9">
-        <v>0.007196214797441039</v>
+        <v>0.007254466433605358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.495119</v>
       </c>
       <c r="O10">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P10">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q10">
         <v>0.4753911623709999</v>
@@ -1066,10 +1066,10 @@
         <v>4.278520461338999</v>
       </c>
       <c r="S10">
-        <v>0.003044897533805133</v>
+        <v>0.003069545250457494</v>
       </c>
       <c r="T10">
-        <v>0.003044897533805133</v>
+        <v>0.003069545250457495</v>
       </c>
     </row>
   </sheetData>
